--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE58CF-795C-4823-9283-7AF95DA1CC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC378D8C-4580-4A6E-8C3E-16AA889EBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="进度" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC378D8C-4580-4A6E-8C3E-16AA889EBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95D5F4-DF03-469C-9E6F-E711568B6749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="870" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="进度" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>复用工厂主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技研究详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技详情（鼠标移动）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,11 +240,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -258,6 +307,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR45"/>
+  <dimension ref="A1:AR50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,7 +880,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -815,20 +893,15 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="18" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -836,133 +909,279 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+    </row>
+    <row r="23" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+    </row>
+    <row r="24" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+    </row>
+    <row r="25" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+    </row>
+    <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
+    <row r="28" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6"/>
+    <row r="29" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -970,7 +1189,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -978,19 +1197,25 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
@@ -998,15 +1223,20 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1014,7 +1244,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1022,23 +1252,27 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="6"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1046,7 +1280,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1054,9 +1288,49 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95D5F4-DF03-469C-9E6F-E711568B6749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D995C69A-0315-40D4-8F85-9B14B0B91DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="870" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="780" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="进度" sheetId="1" r:id="rId1"/>
+    <sheet name="UI进度" sheetId="1" r:id="rId1"/>
+    <sheet name="功能清单" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +157,46 @@
   </si>
   <si>
     <t>科技详情（鼠标移动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单、科技、摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要建造分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业、公共、能源、研究、军事、特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部建设面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差副页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设面板鼠标移动详情预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息、建造花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +231,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -285,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -336,6 +385,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR50"/>
+  <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,132 +777,138 @@
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -853,19 +917,24 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -873,7 +942,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -881,12 +955,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -894,12 +963,16 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
@@ -911,10 +984,10 @@
     </row>
     <row r="20" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -923,275 +996,280 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-    </row>
-    <row r="23" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-    </row>
-    <row r="24" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-    </row>
-    <row r="25" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+    </row>
+    <row r="29" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+    </row>
+    <row r="30" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+    </row>
+    <row r="31" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+    </row>
+    <row r="32" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1199,40 +1277,30 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
@@ -1253,18 +1321,19 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
@@ -1273,18 +1342,28 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
@@ -1305,18 +1384,22 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
@@ -1328,9 +1411,319 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00E8E7-8D27-4FFD-940C-361B87FDAC11}">
+  <dimension ref="A2:AV47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="2" customWidth="1"/>
+    <col min="5" max="48" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D995C69A-0315-40D4-8F85-9B14B0B91DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00B7AA-FB47-46FB-BB11-47D3B912225A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="780" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="780" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI进度" sheetId="1" r:id="rId1"/>
     <sheet name="功能清单" sheetId="2" r:id="rId2"/>
+    <sheet name="模型进度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,7 +760,8 @@
     <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="2.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="47.625" style="2" customWidth="1"/>
-    <col min="8" max="44" width="9" style="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="9" max="44" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -826,7 +828,7 @@
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21" t="s">
         <v>41</v>
@@ -1729,4 +1731,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5E2114-6F4F-4840-B754-3024C80943E3}">
+  <dimension ref="A2:AV47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="2" customWidth="1"/>
+    <col min="5" max="48" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00B7AA-FB47-46FB-BB11-47D3B912225A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4133946-CC66-46F1-9E8B-4BC32EC8136C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI进度" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,30 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索准备界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索地图主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索随机事件界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索目标选择界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR56"/>
+  <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,7 +980,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -964,7 +988,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -984,7 +1008,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1021,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1005,20 +1029,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1026,350 +1055,352 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="18" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-    </row>
-    <row r="29" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-    </row>
-    <row r="30" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-    </row>
-    <row r="31" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
-    </row>
-    <row r="32" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+    </row>
+    <row r="34" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+    </row>
+    <row r="35" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+    </row>
+    <row r="36" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+    </row>
+    <row r="37" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+    <row r="39" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="6"/>
+    <row r="41" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6"/>
+    <row r="42" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1377,7 +1408,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1385,9 +1416,12 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
@@ -1395,9 +1429,12 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
@@ -1405,15 +1442,20 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+    <row r="47" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1430,18 +1472,22 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
@@ -1461,9 +1507,49 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4133946-CC66-46F1-9E8B-4BC32EC8136C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B0D89-A0A8-4A7C-B5FC-ADAEEC24F655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>探索目标选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船设计界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -419,6 +427,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,9 +1047,9 @@
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
@@ -1062,9 +1073,9 @@
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
@@ -1075,9 +1086,9 @@
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
@@ -1156,9 +1167,9 @@
       <c r="B33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="10"/>
@@ -1463,7 +1474,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1471,7 +1482,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1492,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
@@ -1491,7 +1502,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1499,7 +1510,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1507,15 +1518,20 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1523,7 +1539,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1531,7 +1547,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -1539,7 +1555,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -1547,9 +1563,9 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B0D89-A0A8-4A7C-B5FC-ADAEEC24F655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C953D-4412-4F25-A640-9DE2AB5C002D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,86 @@
   </si>
   <si>
     <t>舰船设计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件设计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreMainPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplorePointPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEntryPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenuPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderReceiveMainPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareHousePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechnologyMainPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockManuPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockUpgradeDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductLineChangeDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneralHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomEventDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechnologyDetailDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssemblePartDesignPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssemblePartChooseDialog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -363,11 +443,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -430,6 +558,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,12 +938,12 @@
     <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="2.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="47.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.125" style="3" customWidth="1"/>
     <col min="9" max="44" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -812,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -823,11 +966,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -838,11 +984,12 @@
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -853,11 +1000,12 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
@@ -865,27 +1013,30 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="21"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="24"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -896,11 +1047,14 @@
       <c r="D9" s="20"/>
       <c r="E9" s="16"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -911,9 +1065,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="26"/>
+      <c r="H10" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -924,9 +1081,12 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="26"/>
+      <c r="H11" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -937,9 +1097,10 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="26"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -950,9 +1111,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="26"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -963,9 +1125,10 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="26"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,9 +1139,10 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="26"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -989,17 +1153,19 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="26"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="26"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1007,19 +1173,21 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="26"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1030,17 +1198,21 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="26"/>
+      <c r="H20" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="26"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1051,9 +1223,12 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="26"/>
+      <c r="H22" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1064,9 +1239,10 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="26"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1077,9 +1253,12 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="26"/>
+      <c r="H24" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1090,9 +1269,12 @@
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="26"/>
+      <c r="H25" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1100,17 +1282,19 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="26"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="26"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1121,25 +1305,28 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="26"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="26"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="26"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1150,9 +1337,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="26"/>
+      <c r="H31" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
@@ -1160,7 +1350,10 @@
       <c r="D32" s="14"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="33" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
@@ -1171,8 +1364,8 @@
       <c r="D33" s="19"/>
       <c r="E33" s="23"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -1217,8 +1410,8 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -1263,8 +1456,8 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -1309,8 +1502,8 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -1359,7 +1552,10 @@
       <c r="D37" s="17"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1372,7 +1568,8 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -1385,7 +1582,8 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
@@ -1393,7 +1591,8 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
@@ -1401,7 +1600,8 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
@@ -1409,7 +1609,8 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
@@ -1417,7 +1618,8 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
@@ -1425,7 +1627,8 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1438,7 +1641,8 @@
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -1451,7 +1655,8 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -1464,7 +1669,10 @@
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="48" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
@@ -1472,17 +1680,19 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="26"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="26"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
@@ -1490,9 +1700,10 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="26"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
@@ -1500,25 +1711,34 @@
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="26"/>
+      <c r="H52" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="26"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
@@ -1529,43 +1749,121 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="26"/>
+      <c r="H57" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C953D-4412-4F25-A640-9DE2AB5C002D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E8823-27D5-4071-97E6-311A2687E454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,22 @@
   </si>
   <si>
     <t>AssemblePartChooseDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含模板选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleShipDesignPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件装配工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -491,11 +507,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -573,6 +615,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR68"/>
+  <dimension ref="A1:AR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1204,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1165,105 +1213,238 @@
       <c r="G17" s="26"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="26" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="26"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+    </row>
+    <row r="20" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+    </row>
+    <row r="21" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+    </row>
+    <row r="22" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+    </row>
+    <row r="23" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="18" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
@@ -1271,12 +1452,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="26"/>
       <c r="H25" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1285,31 +1469,42 @@
       <c r="G26" s="26"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+    <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="5"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
+      <c r="H28" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1317,7 +1512,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1326,181 +1521,75 @@
       <c r="G30" s="26"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
+    <row r="35" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="18" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-    </row>
-    <row r="34" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-    </row>
-    <row r="35" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
     </row>
     <row r="36" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="23"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="19"/>
       <c r="G36" s="28"/>
       <c r="H36" s="18"/>
@@ -1541,62 +1630,168 @@
       <c r="AQ36" s="10"/>
       <c r="AR36" s="10"/>
     </row>
-    <row r="37" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+    </row>
+    <row r="38" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+    </row>
+    <row r="39" spans="1:44" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
+    </row>
+    <row r="40" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="18" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="41" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1604,7 +1799,12 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1631,130 +1831,121 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="26"/>
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="26"/>
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="5"/>
       <c r="G48" s="26"/>
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="5"/>
       <c r="G49" s="26"/>
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="5"/>
       <c r="G53" s="26"/>
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="5"/>
       <c r="G54" s="26"/>
-      <c r="H54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
@@ -1762,14 +1953,12 @@
       <c r="F55" s="5"/>
       <c r="G55" s="26"/>
       <c r="H55" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -1777,30 +1966,43 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="26"/>
+      <c r="G57" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="H57" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="18"/>
+      <c r="G58" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -1808,13 +2010,17 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="5"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
@@ -1861,9 +2067,36 @@
       <c r="G65" s="26"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E8823-27D5-4071-97E6-311A2687E454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462728AB-A8AB-4A93-8D15-627BE50055C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/GameDesign/进度.xlsx
+++ b/GameMaster/GameDesign/进度.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462728AB-A8AB-4A93-8D15-627BE50055C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044ACF32-031F-4CE7-876E-563F9E7386FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI进度" sheetId="1" r:id="rId1"/>
     <sheet name="功能清单" sheetId="2" r:id="rId2"/>
     <sheet name="模型进度" sheetId="3" r:id="rId3"/>
+    <sheet name="备忘" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>装入unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +327,26 @@
   </si>
   <si>
     <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有加成 具体来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称、加成具体数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key唯一，值变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同块需要不同来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,74 +650,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -713,7 +666,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -973,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2626,4 +2579,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252EAEB0-B092-4071-B97C-0D0B1618F3AC}">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>